--- a/109學年原住民族部落國小學校校別概覽_全國(不含澎湖、金門、連江縣).xlsx
+++ b/109學年原住民族部落國小學校校別概覽_全國(不含澎湖、金門、連江縣).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\indigenous\About-indigenous-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E2DECE-35A9-45D0-8F3D-7042073E04E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD42ED-C829-42DC-990E-1AE49E9ECAE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1169">
   <si>
     <t>ID</t>
   </si>
@@ -3435,10 +3435,6 @@
   </si>
   <si>
     <t>學校數</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>鄉鎮統計</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -4539,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H315" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J339"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4678,7 +4674,7 @@
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="P2" t="s">
         <v>38</v>
@@ -4746,11 +4742,9 @@
       <c r="AL2" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>1134</v>
@@ -4771,7 +4765,7 @@
         <v>1121</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AV2" s="1" t="s">
         <v>1134</v>
@@ -4898,10 +4892,7 @@
         <f t="shared" ref="AL3:AL14" si="4">COUNTIF(G$3:G$339,AI3)</f>
         <v>2</v>
       </c>
-      <c r="AM3" s="1">
-        <f>COUNTIF(G$3:G$339,AI3)</f>
-        <v>2</v>
-      </c>
+      <c r="AM3" s="1"/>
       <c r="AN3" s="1" t="s">
         <v>59</v>
       </c>
@@ -4918,13 +4909,13 @@
         <v>2</v>
       </c>
       <c r="AR3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AS3" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="AU3" s="1">
         <f>COUNTIF(J3:J339,AT3)</f>
@@ -5074,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="AR4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="AS4" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="AU4" s="1">
         <f>COUNTIF(J4:J340,AT4)</f>
@@ -5230,13 +5221,13 @@
         <v>8</v>
       </c>
       <c r="AR5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="AS5" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="AU5" s="1">
         <f>COUNTIF(J5:J341,AT5)</f>
@@ -5386,13 +5377,13 @@
         <v>2</v>
       </c>
       <c r="AR6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>1148</v>
       </c>
       <c r="AU6" s="1">
         <f>COUNTIF(J6:J342,AT6)</f>
@@ -5542,10 +5533,10 @@
         <v>2</v>
       </c>
       <c r="AR7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
@@ -5685,10 +5676,10 @@
         <v>5</v>
       </c>
       <c r="AR8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -5828,10 +5819,10 @@
         <v>4</v>
       </c>
       <c r="AR9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
@@ -5971,10 +5962,10 @@
         <v>7</v>
       </c>
       <c r="AR10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -6114,10 +6105,10 @@
         <v>11</v>
       </c>
       <c r="AR11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
@@ -6257,10 +6248,10 @@
         <v>5</v>
       </c>
       <c r="AR12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
@@ -6400,10 +6391,10 @@
         <v>2</v>
       </c>
       <c r="AR13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
@@ -6543,10 +6534,10 @@
         <v>7</v>
       </c>
       <c r="AR14" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
@@ -6670,10 +6661,10 @@
         <v>8</v>
       </c>
       <c r="AR15" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
@@ -6782,10 +6773,10 @@
         <v>61</v>
       </c>
       <c r="AI16" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="AJ16" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="AN16" s="1" t="s">
         <v>134</v>
@@ -6803,10 +6794,10 @@
         <v>9</v>
       </c>
       <c r="AR16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
@@ -6915,7 +6906,7 @@
         <v>61</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AJ17" s="1">
         <f>COUNTIF(L3:L339,AI17)</f>
@@ -6937,10 +6928,10 @@
         <v>3</v>
       </c>
       <c r="AR17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
@@ -7049,7 +7040,7 @@
         <v>61</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AJ18" s="1">
         <f>COUNTIF(L3:L339,AI18)</f>
@@ -7071,10 +7062,10 @@
         <v>3</v>
       </c>
       <c r="AR18" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
@@ -7198,10 +7189,10 @@
         <v>5</v>
       </c>
       <c r="AR19" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
@@ -7327,10 +7318,10 @@
         <v>3</v>
       </c>
       <c r="AR20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
@@ -7456,10 +7447,10 @@
         <v>1</v>
       </c>
       <c r="AR21" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AS21" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
@@ -7585,10 +7576,10 @@
         <v>3</v>
       </c>
       <c r="AR22" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AS22" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
